--- a/2022EKOMIS.xlsx
+++ b/2022EKOMIS.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
